--- a/trunk/OSAMS/fileupload/group2_sample.xlsx
+++ b/trunk/OSAMS/fileupload/group2_sample.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/OSAMS/fileupload/group2_sample.xlsx
+++ b/trunk/OSAMS/fileupload/group2_sample.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
